--- a/data_year/zb/运输和邮电/公路营运汽车拥有量.xlsx
+++ b/data_year/zb/运输和邮电/公路营运汽车拥有量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,589 +473,337 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15737292</v>
+        <v>52232319</v>
       </c>
       <c r="C2" t="n">
-        <v>475.24</v>
+        <v>996.4252</v>
       </c>
       <c r="D2" t="n">
-        <v>2524.45</v>
+        <v>2017.0891</v>
       </c>
       <c r="E2" t="n">
-        <v>702.8179</v>
+        <v>1133.3221</v>
       </c>
       <c r="F2" t="n">
-        <v>216.8093</v>
+        <v>83.1319</v>
       </c>
       <c r="G2" t="n">
-        <v>16677000</v>
+        <v>59998178</v>
       </c>
       <c r="H2" t="n">
-        <v>486.02</v>
+        <v>1050.1902</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16214034</v>
+        <v>62735114</v>
       </c>
       <c r="C3" t="n">
-        <v>496.6455</v>
+        <v>1116.3639</v>
       </c>
       <c r="D3" t="n">
-        <v>2701.6799</v>
+        <v>2086.6567</v>
       </c>
       <c r="E3" t="n">
-        <v>764.3869</v>
+        <v>1263.7525</v>
       </c>
       <c r="F3" t="n">
-        <v>255.1167</v>
+        <v>84.3412</v>
       </c>
       <c r="G3" t="n">
-        <v>17335780</v>
+        <v>72612001</v>
       </c>
       <c r="H3" t="n">
-        <v>509.2702</v>
+        <v>1179.4113</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16747900</v>
+        <v>69632860</v>
       </c>
       <c r="C4" t="n">
-        <v>520.27</v>
+        <v>1184.5813</v>
       </c>
       <c r="D4" t="n">
-        <v>2972.32</v>
+        <v>2166.5517</v>
       </c>
       <c r="E4" t="n">
-        <v>826.34</v>
+        <v>1339.8917</v>
       </c>
       <c r="F4" t="n">
-        <v>289.55</v>
+        <v>86.7055</v>
       </c>
       <c r="G4" t="n">
-        <v>18084500</v>
+        <v>80621408</v>
       </c>
       <c r="H4" t="n">
-        <v>536.78</v>
+        <v>1253.1862</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17888551</v>
+        <v>50083378</v>
       </c>
       <c r="C5" t="n">
-        <v>553.2333</v>
+        <v>1080.7508</v>
       </c>
       <c r="D5" t="n">
-        <v>3430.6397</v>
+        <v>2170.2588</v>
       </c>
       <c r="E5" t="n">
-        <v>924.6393</v>
+        <v>1504.7322</v>
       </c>
       <c r="F5" t="n">
-        <v>352.1877</v>
+        <v>85.25660000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>19415184</v>
+        <v>96139137</v>
       </c>
       <c r="H5" t="n">
-        <v>572.4516</v>
+        <v>1419.4756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21196419</v>
+        <v>52414465</v>
       </c>
       <c r="C6" t="n">
-        <v>604.9287</v>
+        <v>1091.3213</v>
       </c>
       <c r="D6" t="n">
-        <v>3872.2112</v>
+        <v>2189.5471</v>
       </c>
       <c r="E6" t="n">
-        <v>1067.1796</v>
+        <v>1537.932</v>
       </c>
       <c r="F6" t="n">
-        <v>439.0901</v>
+        <v>84.5759</v>
       </c>
       <c r="G6" t="n">
-        <v>23386067</v>
+        <v>102924686</v>
       </c>
       <c r="H6" t="n">
-        <v>628.0895</v>
+        <v>1453.3561</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22821481</v>
+        <v>49824986</v>
       </c>
       <c r="C7" t="n">
-        <v>580.2777</v>
+        <v>1011.8719</v>
       </c>
       <c r="D7" t="n">
-        <v>1859.2832</v>
+        <v>2148.5793</v>
       </c>
       <c r="E7" t="n">
-        <v>733.2202</v>
+        <v>1473.1192</v>
       </c>
       <c r="F7" t="n">
-        <v>128.4011</v>
+        <v>83.92870000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>25377528</v>
+        <v>103665006</v>
       </c>
       <c r="H7" t="n">
-        <v>604.8191</v>
+        <v>1389.1905</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23431340</v>
+        <v>48438281</v>
       </c>
       <c r="C8" t="n">
-        <v>598.4340999999999</v>
+        <v>946.0321</v>
       </c>
       <c r="D8" t="n">
-        <v>2312.4073</v>
+        <v>2140.2638</v>
       </c>
       <c r="E8" t="n">
-        <v>802.5774</v>
+        <v>1435.7741</v>
       </c>
       <c r="F8" t="n">
-        <v>161.9219</v>
+        <v>84.00360000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>28226852</v>
+        <v>108267789</v>
       </c>
       <c r="H8" t="n">
-        <v>640.6555</v>
+        <v>1351.7705</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26437426</v>
+        <v>48683971</v>
       </c>
       <c r="C9" t="n">
-        <v>648.0073</v>
+        <v>902.9008</v>
       </c>
       <c r="D9" t="n">
-        <v>2428.8089</v>
+        <v>2099.1807</v>
       </c>
       <c r="E9" t="n">
-        <v>849.2237</v>
+        <v>1450.2215</v>
       </c>
       <c r="F9" t="n">
-        <v>164.7297</v>
+        <v>81.605</v>
       </c>
       <c r="G9" t="n">
-        <v>31356868</v>
+        <v>117748131</v>
       </c>
       <c r="H9" t="n">
-        <v>684.494</v>
+        <v>1368.6165</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31397612</v>
+        <v>47912051</v>
       </c>
       <c r="C10" t="n">
-        <v>720.1778</v>
+        <v>816.763</v>
       </c>
       <c r="D10" t="n">
-        <v>2560.3642</v>
+        <v>2048.1139</v>
       </c>
       <c r="E10" t="n">
-        <v>930.6056</v>
+        <v>1435.4795</v>
       </c>
       <c r="F10" t="n">
-        <v>169.6399</v>
+        <v>79.65949999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>36862022</v>
+        <v>128729734</v>
       </c>
       <c r="H10" t="n">
-        <v>760.9657</v>
+        <v>1355.82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>40027959</v>
+        <v>44792452</v>
       </c>
       <c r="C11" t="n">
-        <v>859.2746</v>
+        <v>489.7736</v>
       </c>
       <c r="D11" t="n">
-        <v>2799.7148</v>
+        <v>2002.5278</v>
       </c>
       <c r="E11" t="n">
-        <v>1087.3515</v>
+        <v>1165.4925</v>
       </c>
       <c r="F11" t="n">
-        <v>180.7909</v>
+        <v>77.67100000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>46552291</v>
+        <v>135870040</v>
       </c>
       <c r="H11" t="n">
-        <v>906.5606</v>
+        <v>1087.8215</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>52232319</v>
+        <v>46607559.4</v>
       </c>
       <c r="C12" t="n">
-        <v>996.4252</v>
+        <v>414.1405</v>
       </c>
       <c r="D12" t="n">
-        <v>2017.0891</v>
+        <v>1840.8861</v>
       </c>
       <c r="E12" t="n">
-        <v>1133.3221</v>
+        <v>1171.5377</v>
       </c>
       <c r="F12" t="n">
-        <v>83.1319</v>
+        <v>61.2592</v>
       </c>
       <c r="G12" t="n">
-        <v>59998178</v>
+        <v>157841708.4</v>
       </c>
       <c r="H12" t="n">
-        <v>1050.1902</v>
+        <v>1110.2785</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62735114</v>
+        <v>49234323.3</v>
       </c>
       <c r="C13" t="n">
-        <v>1116.3639</v>
+        <v>406.9392</v>
       </c>
       <c r="D13" t="n">
-        <v>2086.6567</v>
+        <v>1751.0343</v>
       </c>
       <c r="E13" t="n">
-        <v>1263.7525</v>
+        <v>1231.9587</v>
       </c>
       <c r="F13" t="n">
-        <v>84.3412</v>
+        <v>58.6998</v>
       </c>
       <c r="G13" t="n">
-        <v>72612001</v>
+        <v>170994995.6</v>
       </c>
       <c r="H13" t="n">
-        <v>1179.4113</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>69632860</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1184.5813</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2166.5517</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1339.8917</v>
-      </c>
-      <c r="F14" t="n">
-        <v>86.7055</v>
-      </c>
-      <c r="G14" t="n">
-        <v>80621408</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1253.1862</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>50083378</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1080.7508</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2170.2588</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1504.7322</v>
-      </c>
-      <c r="F15" t="n">
-        <v>85.25660000000001</v>
-      </c>
-      <c r="G15" t="n">
-        <v>96139137</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1419.4756</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>52414465</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1091.3213</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2189.5471</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1537.932</v>
-      </c>
-      <c r="F16" t="n">
-        <v>84.5759</v>
-      </c>
-      <c r="G16" t="n">
-        <v>102924686</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1453.3561</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>49824986</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1011.8719</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2148.5793</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1473.1192</v>
-      </c>
-      <c r="F17" t="n">
-        <v>83.92870000000001</v>
-      </c>
-      <c r="G17" t="n">
-        <v>103665006</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1389.1905</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>48438281</v>
-      </c>
-      <c r="C18" t="n">
-        <v>946.0321</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2140.2638</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1435.7741</v>
-      </c>
-      <c r="F18" t="n">
-        <v>84.00360000000001</v>
-      </c>
-      <c r="G18" t="n">
-        <v>108267789</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1351.7705</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>48683971</v>
-      </c>
-      <c r="C19" t="n">
-        <v>902.9008</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2099.1807</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1450.2215</v>
-      </c>
-      <c r="F19" t="n">
-        <v>81.605</v>
-      </c>
-      <c r="G19" t="n">
-        <v>117748131</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1368.6165</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>47912051</v>
-      </c>
-      <c r="C20" t="n">
-        <v>816.763</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2048.1139</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1435.4795</v>
-      </c>
-      <c r="F20" t="n">
-        <v>79.65949999999999</v>
-      </c>
-      <c r="G20" t="n">
-        <v>128729734</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1355.82</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>44792452</v>
-      </c>
-      <c r="C21" t="n">
-        <v>489.7736</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2002.5278</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1165.4925</v>
-      </c>
-      <c r="F21" t="n">
-        <v>77.67100000000001</v>
-      </c>
-      <c r="G21" t="n">
-        <v>135870040</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1087.8215</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>46607559.4</v>
-      </c>
-      <c r="C22" t="n">
-        <v>414.1405</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1840.8861</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1171.5377</v>
-      </c>
-      <c r="F22" t="n">
-        <v>61.2592</v>
-      </c>
-      <c r="G22" t="n">
-        <v>157841708.4</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1110.2785</v>
+        <v>1173.2589</v>
       </c>
     </row>
   </sheetData>
